--- a/tashpa_zmanim.xlsx
+++ b/tashpa_zmanim.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ysadigurschi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonasadigurschi/Documents/luach_beit_knesset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A07F00-AA15-E64B-AAD6-0DEC882E093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B02B4B-F598-2841-A14B-284BF22C247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{345E340E-057A-E54C-A6D6-809DE8F26B72}"/>
   </bookViews>
   <sheets>
     <sheet name="tashpa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="177">
   <si>
     <t>האזינו</t>
   </si>
@@ -435,12 +435,147 @@
   </si>
   <si>
     <t>motzash</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ז כסלו</t>
+  </si>
+  <si>
+    <t>יד כסלו</t>
+  </si>
+  <si>
+    <t>כא כסלו</t>
+  </si>
+  <si>
+    <t>כח כסלו</t>
+  </si>
+  <si>
+    <t>ה טבת</t>
+  </si>
+  <si>
+    <t>יב טבת</t>
+  </si>
+  <si>
+    <t>יט טבת</t>
+  </si>
+  <si>
+    <t>כו טבת</t>
+  </si>
+  <si>
+    <t>ד שבט</t>
+  </si>
+  <si>
+    <t>יא שבט</t>
+  </si>
+  <si>
+    <t>יח שבט</t>
+  </si>
+  <si>
+    <t>כה שבט</t>
+  </si>
+  <si>
+    <t>ב אדר</t>
+  </si>
+  <si>
+    <t>ט אדר</t>
+  </si>
+  <si>
+    <t>טז אדר</t>
+  </si>
+  <si>
+    <t>כג אדר</t>
+  </si>
+  <si>
+    <t>א ניסן</t>
+  </si>
+  <si>
+    <t>ח ניסן</t>
+  </si>
+  <si>
+    <t>טז ניסן</t>
+  </si>
+  <si>
+    <t>כב ניסן</t>
+  </si>
+  <si>
+    <t>כט ניסן</t>
+  </si>
+  <si>
+    <t>ו אייר</t>
+  </si>
+  <si>
+    <t>יג אייר</t>
+  </si>
+  <si>
+    <t>כ אייר</t>
+  </si>
+  <si>
+    <t>כז אייר</t>
+  </si>
+  <si>
+    <t>ה סיון</t>
+  </si>
+  <si>
+    <t>ז סיון</t>
+  </si>
+  <si>
+    <t>יב סיון</t>
+  </si>
+  <si>
+    <t>יט סיון</t>
+  </si>
+  <si>
+    <t>כו סיון</t>
+  </si>
+  <si>
+    <t>ג תמוז</t>
+  </si>
+  <si>
+    <t>י תמוז</t>
+  </si>
+  <si>
+    <t>יז תמוז</t>
+  </si>
+  <si>
+    <t>כד תמוז</t>
+  </si>
+  <si>
+    <t>ב אב</t>
+  </si>
+  <si>
+    <t>ט אב</t>
+  </si>
+  <si>
+    <t>טז אב</t>
+  </si>
+  <si>
+    <t>כג אב</t>
+  </si>
+  <si>
+    <t>ל אב</t>
+  </si>
+  <si>
+    <t>ז אלול</t>
+  </si>
+  <si>
+    <t>יד אלול</t>
+  </si>
+  <si>
+    <t>כא אלול</t>
+  </si>
+  <si>
+    <t>כח אלול</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1000000]h:mm;@"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -842,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,6 +1076,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,10 +1412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D766B2C4-846F-AF4D-9BFD-E7D5C730519A}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4406,7 +4544,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>45857</v>
       </c>
@@ -4471,7 +4609,7 @@
         <v>0.84722222222222232</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>45864</v>
       </c>
@@ -4536,7 +4674,7 @@
         <v>0.84305555555555556</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>45871</v>
       </c>
@@ -4601,7 +4739,7 @@
         <v>0.83819444444444446</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>45878</v>
       </c>
@@ -4666,7 +4804,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>45885</v>
       </c>
@@ -4731,7 +4869,7 @@
         <v>0.82777777777777772</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>45892</v>
       </c>
@@ -4796,7 +4934,7 @@
         <v>0.82152777777777775</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>45899</v>
       </c>
@@ -4861,7 +4999,7 @@
         <v>0.81527777777777766</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>45906</v>
       </c>
@@ -4926,7 +5064,7 @@
         <v>0.80902777777777768</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>45913</v>
       </c>
@@ -4989,6 +5127,3814 @@
       </c>
       <c r="U57" s="30">
         <v>0.80277777777777759</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="35">
+        <v>45923</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="34">
+        <v>0.20763888888888887</v>
+      </c>
+      <c r="E58" s="34">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="F58" s="34">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="G58" s="34">
+        <v>0.27708333333333329</v>
+      </c>
+      <c r="H58" s="34">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="I58" s="34">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="J58" s="34">
+        <v>0.42152777777777783</v>
+      </c>
+      <c r="K58" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L58" s="34">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="M58" s="34">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O58" s="34">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="P58" s="34">
+        <v>0.78749999999999987</v>
+      </c>
+      <c r="Q58" s="34">
+        <v>0.82500000000000018</v>
+      </c>
+      <c r="R58" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S58" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T58" s="34">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="U58" s="34">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="V58" s="34">
+        <v>0.72241030092592584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="35">
+        <v>45925</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="34">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E59" s="34">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="F59" s="34">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G59" s="34">
+        <v>0.27812500000000001</v>
+      </c>
+      <c r="H59" s="34">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="I59" s="34">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="J59" s="34">
+        <v>0.42152777777777783</v>
+      </c>
+      <c r="K59" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L59" s="34">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="M59" s="34">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O59" s="34">
+        <v>0.77291666666666659</v>
+      </c>
+      <c r="P59" s="34">
+        <v>0.78541666666666665</v>
+      </c>
+      <c r="Q59" s="34">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="R59" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S59" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T59" s="34">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="U59" s="34">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="V59" s="34">
+        <v>0.72061631944444438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="35">
+        <v>45932</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="34">
+        <v>0.21180555555555552</v>
+      </c>
+      <c r="E60" s="34">
+        <v>0.23888888888888887</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="G60" s="34">
+        <v>0.28090277777777778</v>
+      </c>
+      <c r="H60" s="34">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="I60" s="34">
+        <v>0.39722222222222225</v>
+      </c>
+      <c r="J60" s="34">
+        <v>0.42152777777777783</v>
+      </c>
+      <c r="K60" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L60" s="34">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="M60" s="34">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="N60" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O60" s="34">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="P60" s="34">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="Q60" s="34">
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="R60" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S60" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T60" s="34">
+        <v>0.74722222222222212</v>
+      </c>
+      <c r="U60" s="34">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="V60" s="34">
+        <v>0.71530671296296289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="35">
+        <v>45936</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="34">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="E61" s="34">
+        <v>0.2409722222222222</v>
+      </c>
+      <c r="F61" s="34">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="G61" s="34">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="H61" s="34">
+        <v>0.37291666666666667</v>
+      </c>
+      <c r="I61" s="34">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="J61" s="34">
+        <v>0.42152777777777783</v>
+      </c>
+      <c r="K61" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L61" s="34">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="M61" s="34">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="N61" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O61" s="34">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="P61" s="34">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="Q61" s="34">
+        <v>0.81319444444444466</v>
+      </c>
+      <c r="R61" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S61" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T61" s="34">
+        <v>0.74374999999999991</v>
+      </c>
+      <c r="U61" s="34">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="V61" s="34">
+        <v>0.7124131944444444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="35">
+        <v>45939</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="34">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E62" s="34">
+        <v>0.24236111111111108</v>
+      </c>
+      <c r="F62" s="34">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="G62" s="34">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H62" s="34">
+        <v>0.37291666666666667</v>
+      </c>
+      <c r="I62" s="34">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="J62" s="34">
+        <v>0.42152777777777783</v>
+      </c>
+      <c r="K62" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L62" s="34">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="M62" s="34">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="N62" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O62" s="34">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="P62" s="34">
+        <v>0.77291666666666659</v>
+      </c>
+      <c r="Q62" s="34">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="R62" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S62" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T62" s="34">
+        <v>0.74097222222222214</v>
+      </c>
+      <c r="U62" s="34">
+        <v>0.78541666666666665</v>
+      </c>
+      <c r="V62" s="34">
+        <v>0.71006944444444442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="35">
+        <v>45944</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="34">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="E63" s="34">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="F63" s="34">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="G63" s="34">
+        <v>0.2878472222222222</v>
+      </c>
+      <c r="H63" s="34">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="I63" s="34">
+        <v>0.39861111111111114</v>
+      </c>
+      <c r="J63" s="34">
+        <v>0.42152777777777783</v>
+      </c>
+      <c r="K63" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L63" s="34">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="M63" s="34">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="N63" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O63" s="34">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="P63" s="34">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="Q63" s="34">
+        <v>0.80625000000000024</v>
+      </c>
+      <c r="R63" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S63" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T63" s="34">
+        <v>0.73680555555555549</v>
+      </c>
+      <c r="U63" s="34">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="V63" s="34">
+        <v>0.70662615740740742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="35">
+        <v>45946</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="34">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="E64" s="34">
+        <v>0.24513888888888885</v>
+      </c>
+      <c r="F64" s="34">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="G64" s="34">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="H64" s="34">
+        <v>0.37430555555555556</v>
+      </c>
+      <c r="I64" s="34">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="J64" s="34">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="K64" s="34">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="L64" s="34">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="M64" s="34">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="N64" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O64" s="34">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="P64" s="34">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="Q64" s="34">
+        <v>0.80486111111111136</v>
+      </c>
+      <c r="R64" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S64" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T64" s="34">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="U64" s="34">
+        <v>0.77986111111111112</v>
+      </c>
+      <c r="V64" s="34">
+        <v>0.70545428240740737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="35">
+        <v>45953</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="34">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="E65" s="34">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="F65" s="34">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="G65" s="34">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H65" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I65" s="34">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="J65" s="34">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="K65" s="34">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="L65" s="34">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M65" s="34">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O65" s="34">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="P65" s="34">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="Q65" s="34">
+        <v>0.75833333333333364</v>
+      </c>
+      <c r="R65" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S65" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T65" s="34">
+        <v>0.68819444444444455</v>
+      </c>
+      <c r="U65" s="34">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="V65" s="34">
+        <v>0.6591724537037037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="35">
+        <v>45960</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="34">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="E66" s="34">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="F66" s="34">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="G66" s="34">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H66" s="34">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="I66" s="34">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="J66" s="34">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="K66" s="34">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="L66" s="34">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M66" s="34">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="N66" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O66" s="34">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="P66" s="34">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="Q66" s="34">
+        <v>0.75347222222222254</v>
+      </c>
+      <c r="R66" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S66" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T66" s="34">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="U66" s="34">
+        <v>0.72847222222222219</v>
+      </c>
+      <c r="V66" s="34">
+        <v>0.6552517361111112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="35">
+        <v>45967</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="34">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="E67" s="34">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="F67" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="G67" s="34">
+        <v>0.26006944444444441</v>
+      </c>
+      <c r="H67" s="34">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I67" s="34">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="J67" s="34">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="K67" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="L67" s="34">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M67" s="34">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="N67" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O67" s="34">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="P67" s="34">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="Q67" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="R67" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S67" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T67" s="34">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="U67" s="34">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="V67" s="34">
+        <v>0.65250289351851853</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="35">
+        <v>45974</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="34">
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="E68" s="34">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="F68" s="34">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="G68" s="34">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="H68" s="34">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="I68" s="34">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J68" s="34">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="K68" s="34">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="L68" s="34">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M68" s="34">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O68" s="34">
+        <v>0.69583333333333341</v>
+      </c>
+      <c r="P68" s="34">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="Q68" s="34">
+        <v>0.74722222222222257</v>
+      </c>
+      <c r="R68" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S68" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T68" s="34">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="U68" s="34">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="V68" s="34">
+        <v>0.6498987268518519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="35">
+        <v>45981</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="34">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="E69" s="34">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="F69" s="34">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="G69" s="34">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="H69" s="34">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="I69" s="34">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="J69" s="34">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="K69" s="34">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="L69" s="34">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="M69" s="34">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O69" s="34">
+        <v>0.69305555555555565</v>
+      </c>
+      <c r="P69" s="34">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="Q69" s="34">
+        <v>0.74583333333333368</v>
+      </c>
+      <c r="R69" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S69" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T69" s="34">
+        <v>0.67430555555555549</v>
+      </c>
+      <c r="U69" s="34">
+        <v>0.71944444444444455</v>
+      </c>
+      <c r="V69" s="34">
+        <v>0.64784432870370379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="35">
+        <v>45988</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="34">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="E70" s="34">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F70" s="34">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="G70" s="34">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="H70" s="34">
+        <v>0.34375</v>
+      </c>
+      <c r="I70" s="34">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="J70" s="34">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="K70" s="34">
+        <v>0.40625</v>
+      </c>
+      <c r="L70" s="34">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="M70" s="34">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O70" s="34">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="P70" s="34">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="Q70" s="34">
+        <v>0.7444444444444448</v>
+      </c>
+      <c r="R70" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S70" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T70" s="34">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="U70" s="34">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="V70" s="34">
+        <v>0.64703414351851862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="35">
+        <v>45995</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="34">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="E71" s="34">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F71" s="34">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="G71" s="34">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="H71" s="34">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="I71" s="34">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="J71" s="34">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="K71" s="34">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="L71" s="34">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="M71" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O71" s="34">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="P71" s="34">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="Q71" s="34">
+        <v>0.7444444444444448</v>
+      </c>
+      <c r="R71" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S71" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T71" s="34">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="U71" s="34">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="V71" s="34">
+        <v>0.64746817129629641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="35">
+        <v>46002</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="34">
+        <v>0.20416666666666669</v>
+      </c>
+      <c r="E72" s="34">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F72" s="34">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G72" s="34">
+        <v>0.28125</v>
+      </c>
+      <c r="H72" s="34">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="I72" s="34">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="J72" s="34">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="K72" s="34">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="L72" s="34">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="M72" s="34">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="N72" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O72" s="34">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="P72" s="34">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="Q72" s="34">
+        <v>0.74583333333333368</v>
+      </c>
+      <c r="R72" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S72" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T72" s="34">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="U72" s="34">
+        <v>0.71875</v>
+      </c>
+      <c r="V72" s="34">
+        <v>0.64782986111111118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="35">
+        <v>46009</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="34">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="E73" s="34">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="F73" s="34">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="G73" s="34">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="H73" s="34">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="I73" s="34">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="J73" s="34">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K73" s="34">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="L73" s="34">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="M73" s="34">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="N73" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O73" s="34">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="P73" s="34">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="Q73" s="34">
+        <v>0.74722222222222257</v>
+      </c>
+      <c r="R73" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S73" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T73" s="34">
+        <v>0.67430555555555549</v>
+      </c>
+      <c r="U73" s="34">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="V73" s="34">
+        <v>0.64998553240740742</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="35">
+        <v>46016</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="34">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="E74" s="34">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="F74" s="34">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="G74" s="34">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="H74" s="34">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I74" s="34">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="J74" s="34">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="K74" s="34">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="L74" s="34">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="M74" s="34">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="N74" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O74" s="34">
+        <v>0.69583333333333341</v>
+      </c>
+      <c r="P74" s="34">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="Q74" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="R74" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S74" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T74" s="34">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="U74" s="34">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="V74" s="34">
+        <v>0.65214120370370376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="35">
+        <v>46023</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="34">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="E75" s="34">
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="F75" s="34">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="G75" s="34">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="H75" s="34">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="I75" s="34">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="J75" s="34">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="K75" s="34">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="L75" s="34">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="M75" s="34">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="N75" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O75" s="34">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="P75" s="34">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="Q75" s="34">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="R75" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S75" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T75" s="34">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="U75" s="34">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="V75" s="34">
+        <v>0.65539641203703713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="35">
+        <v>46030</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="34">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="E76" s="34">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="F76" s="34">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="G76" s="34">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="H76" s="34">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="I76" s="34">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="J76" s="34">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="K76" s="34">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="L76" s="34">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="M76" s="34">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="N76" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O76" s="34">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="P76" s="34">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="Q76" s="34">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="R76" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S76" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T76" s="34">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="U76" s="34">
+        <v>0.72986111111111129</v>
+      </c>
+      <c r="V76" s="34">
+        <v>0.65857928240740748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="35">
+        <v>46037</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="34">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="E77" s="34">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="F77" s="34">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="G77" s="34">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="H77" s="34">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="I77" s="34">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J77" s="34">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="K77" s="34">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="L77" s="34">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M77" s="34">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="N77" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O77" s="34">
+        <v>0.70694444444444449</v>
+      </c>
+      <c r="P77" s="34">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="Q77" s="34">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="R77" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S77" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T77" s="34">
+        <v>0.68749999999999989</v>
+      </c>
+      <c r="U77" s="34">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="V77" s="34">
+        <v>0.66231192129629635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="35">
+        <v>46044</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="34">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="E78" s="34">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F78" s="34">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="G78" s="34">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="H78" s="34">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="I78" s="34">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J78" s="34">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="K78" s="34">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="L78" s="34">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="M78" s="34">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="N78" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O78" s="34">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="P78" s="34">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Q78" s="34">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="R78" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S78" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T78" s="34">
+        <v>0.69166666666666654</v>
+      </c>
+      <c r="U78" s="34">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="V78" s="34">
+        <v>0.66652199074074081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="35">
+        <v>46051</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="34">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="E79" s="34">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="F79" s="34">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="G79" s="34">
+        <v>0.28437499999999999</v>
+      </c>
+      <c r="H79" s="34">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="I79" s="34">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="J79" s="34">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="K79" s="34">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="L79" s="34">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="M79" s="34">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="N79" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O79" s="34">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="P79" s="34">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Q79" s="34">
+        <v>0.76805555555555549</v>
+      </c>
+      <c r="R79" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S79" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T79" s="34">
+        <v>0.69652777777777763</v>
+      </c>
+      <c r="U79" s="34">
+        <v>0.74166666666666659</v>
+      </c>
+      <c r="V79" s="34">
+        <v>0.66996527777777781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="35">
+        <v>46058</v>
+      </c>
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="34">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="E80" s="34">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="F80" s="34">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="G80" s="34">
+        <v>0.28125</v>
+      </c>
+      <c r="H80" s="34">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="I80" s="34">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="J80" s="34">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="K80" s="34">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="L80" s="34">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="M80" s="34">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="N80" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O80" s="34">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="P80" s="34">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="Q80" s="34">
+        <v>0.77152777777777781</v>
+      </c>
+      <c r="R80" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S80" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T80" s="34">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="U80" s="34">
+        <v>0.74583333333333335</v>
+      </c>
+      <c r="V80" s="34">
+        <v>0.67403067129629624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="35">
+        <v>46065</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="34">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="E81" s="34">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="F81" s="34">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="G81" s="34">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="H81" s="34">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="I81" s="34">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J81" s="34">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="K81" s="34">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="L81" s="34">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="M81" s="34">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="N81" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O81" s="34">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="P81" s="34">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="Q81" s="34">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="R81" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S81" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T81" s="34">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="U81" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="V81" s="34">
+        <v>0.67732928240740742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="35">
+        <v>46072</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="34">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="E82" s="34">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="F82" s="34">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="G82" s="34">
+        <v>0.27187500000000003</v>
+      </c>
+      <c r="H82" s="34">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I82" s="34">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="J82" s="34">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="K82" s="34">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="L82" s="34">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="M82" s="34">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="N82" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O82" s="34">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="P82" s="34">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="Q82" s="34">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="R82" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S82" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T82" s="34">
+        <v>0.70902777777777781</v>
+      </c>
+      <c r="U82" s="34">
+        <v>0.75416666666666665</v>
+      </c>
+      <c r="V82" s="34">
+        <v>0.68062789351851849</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="35">
+        <v>46079</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="34">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="E83" s="34">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="F83" s="34">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="G83" s="34">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="H83" s="34">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="I83" s="34">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="J83" s="34">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="K83" s="34">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="L83" s="34">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="M83" s="34">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="N83" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O83" s="34">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="P83" s="34">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="Q83" s="34">
+        <v>0.78263888888888888</v>
+      </c>
+      <c r="R83" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S83" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T83" s="34">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="U83" s="34">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="V83" s="34">
+        <v>0.68315972222222221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="35">
+        <v>46086</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="34">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="E84" s="34">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="F84" s="34">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="G84" s="34">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H84" s="34">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="I84" s="34">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="J84" s="34">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="K84" s="34">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="L84" s="34">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="M84" s="34">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="N84" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O84" s="34">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="P84" s="34">
+        <v>0.74861111111111101</v>
+      </c>
+      <c r="Q84" s="34">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="R84" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S84" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T84" s="34">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="U84" s="34">
+        <v>0.76111111111111096</v>
+      </c>
+      <c r="V84" s="34">
+        <v>0.68576388888888884</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="35">
+        <v>46093</v>
+      </c>
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="34">
+        <v>0.18472222222222223</v>
+      </c>
+      <c r="E85" s="34">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="F85" s="34">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="G85" s="34">
+        <v>0.25416666666666665</v>
+      </c>
+      <c r="H85" s="34">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="I85" s="34">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="J85" s="34">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="K85" s="34">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="L85" s="34">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="M85" s="34">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="N85" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O85" s="34">
+        <v>0.73958333333333326</v>
+      </c>
+      <c r="P85" s="34">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="Q85" s="34">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="R85" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S85" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T85" s="34">
+        <v>0.72013888888888888</v>
+      </c>
+      <c r="U85" s="34">
+        <v>0.76458333333333328</v>
+      </c>
+      <c r="V85" s="34">
+        <v>0.68829571759259256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="35">
+        <v>46100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="34">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="E86" s="34">
+        <v>0.24791666666666665</v>
+      </c>
+      <c r="F86" s="34">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="G86" s="34">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="H86" s="34">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="I86" s="34">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="J86" s="34">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="K86" s="34">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="L86" s="34">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M86" s="34">
+        <v>0.55486111111111103</v>
+      </c>
+      <c r="N86" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O86" s="34">
+        <v>0.7847222222222221</v>
+      </c>
+      <c r="P86" s="34">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="Q86" s="34">
+        <v>0.83472222222222214</v>
+      </c>
+      <c r="R86" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S86" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T86" s="34">
+        <v>0.76527777777777761</v>
+      </c>
+      <c r="U86" s="34">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="V86" s="34">
+        <v>0.73242187499999989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="35">
+        <v>46107</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="34">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="E87" s="34">
+        <v>0.2409722222222222</v>
+      </c>
+      <c r="F87" s="34">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="G87" s="34">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="H87" s="34">
+        <v>0.37916666666666671</v>
+      </c>
+      <c r="I87" s="34">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="J87" s="34">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="K87" s="34">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="L87" s="34">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="M87" s="34">
+        <v>0.55347222222222214</v>
+      </c>
+      <c r="N87" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O87" s="34">
+        <v>0.78819444444444431</v>
+      </c>
+      <c r="P87" s="34">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="Q87" s="34">
+        <v>0.83819444444444435</v>
+      </c>
+      <c r="R87" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S87" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T87" s="34">
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="U87" s="34">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="V87" s="34">
+        <v>0.73488136574074059</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="35">
+        <v>46114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="34">
+        <v>0.20694444444444443</v>
+      </c>
+      <c r="E88" s="34">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="F88" s="34">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="G88" s="34">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="H88" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="I88" s="34">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="J88" s="34">
+        <v>0.42708333333333337</v>
+      </c>
+      <c r="K88" s="34">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="L88" s="34">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="M88" s="34">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="N88" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O88" s="34">
+        <v>0.79097222222222208</v>
+      </c>
+      <c r="P88" s="34">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="Q88" s="34">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="R88" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S88" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T88" s="34">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="U88" s="34">
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="V88" s="34">
+        <v>0.73671874999999987</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="35">
+        <v>46115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="34">
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="E89" s="34">
+        <v>0.23402777777777778</v>
+      </c>
+      <c r="F89" s="34">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="G89" s="34">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="H89" s="34">
+        <v>0.37430555555555556</v>
+      </c>
+      <c r="I89" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="J89" s="34">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="K89" s="34">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="L89" s="34">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="M89" s="34">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="N89" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O89" s="34">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P89" s="34">
+        <v>0.80416666666666659</v>
+      </c>
+      <c r="Q89" s="34">
+        <v>0.84236111111111112</v>
+      </c>
+      <c r="R89" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S89" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T89" s="34">
+        <v>0.77222222222222214</v>
+      </c>
+      <c r="U89" s="34">
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="V89" s="34">
+        <v>0.73726851851851849</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="35">
+        <v>46121</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="34">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="E90" s="34">
+        <v>0.22847222222222222</v>
+      </c>
+      <c r="F90" s="34">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="G90" s="34">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="H90" s="34">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="I90" s="34">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="J90" s="34">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="K90" s="34">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="L90" s="34">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="M90" s="34">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="N90" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O90" s="34">
+        <v>0.79444444444444429</v>
+      </c>
+      <c r="P90" s="34">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="Q90" s="34">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="R90" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S90" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T90" s="34">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="U90" s="34">
+        <v>0.82013888888888908</v>
+      </c>
+      <c r="V90" s="34">
+        <v>0.73917824074074057</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="35">
+        <v>46128</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="34">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="E91" s="34">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F91" s="34">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="G91" s="34">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="H91" s="34">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="I91" s="34">
+        <v>0.3930555555555556</v>
+      </c>
+      <c r="J91" s="34">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="K91" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L91" s="34">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M91" s="34">
+        <v>0.55069444444444438</v>
+      </c>
+      <c r="N91" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O91" s="34">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="P91" s="34">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="Q91" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="R91" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S91" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T91" s="34">
+        <v>0.77847222222222212</v>
+      </c>
+      <c r="U91" s="34">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="V91" s="34">
+        <v>0.7417100694444444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="35">
+        <v>46135</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="34">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="E92" s="34">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="F92" s="34">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="G92" s="34">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="H92" s="34">
+        <v>0.36319444444444449</v>
+      </c>
+      <c r="I92" s="34">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="J92" s="34">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="K92" s="34">
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="L92" s="34">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="M92" s="34">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="N92" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O92" s="34">
+        <v>0.80138888888888871</v>
+      </c>
+      <c r="P92" s="34">
+        <v>0.81388888888888888</v>
+      </c>
+      <c r="Q92" s="34">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="R92" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S92" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T92" s="34">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="U92" s="34">
+        <v>0.82708333333333339</v>
+      </c>
+      <c r="V92" s="34">
+        <v>0.74424189814814801</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="35">
+        <v>46142</v>
+      </c>
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" s="34">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="E93" s="34">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="F93" s="34">
+        <v>0.24791666666666665</v>
+      </c>
+      <c r="G93" s="34">
+        <v>0.25381944444444443</v>
+      </c>
+      <c r="H93" s="34">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="I93" s="34">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="J93" s="34">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="K93" s="34">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="L93" s="34">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="M93" s="34">
+        <v>0.54930555555555549</v>
+      </c>
+      <c r="N93" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O93" s="34">
+        <v>0.80486111111111092</v>
+      </c>
+      <c r="P93" s="34">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="Q93" s="34">
+        <v>0.85902777777777772</v>
+      </c>
+      <c r="R93" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S93" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T93" s="34">
+        <v>0.78541666666666665</v>
+      </c>
+      <c r="U93" s="34">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="V93" s="34">
+        <v>0.74684606481481464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="35">
+        <v>46149</v>
+      </c>
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="34">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="E94" s="34">
+        <v>0.2048611111111111</v>
+      </c>
+      <c r="F94" s="34">
+        <v>0.24305555555555552</v>
+      </c>
+      <c r="G94" s="34">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="H94" s="34">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="I94" s="34">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="J94" s="34">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="K94" s="34">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="L94" s="34">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="M94" s="34">
+        <v>0.54930555555555549</v>
+      </c>
+      <c r="N94" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O94" s="34">
+        <v>0.80763888888888868</v>
+      </c>
+      <c r="P94" s="34">
+        <v>0.82152777777777763</v>
+      </c>
+      <c r="Q94" s="34">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="R94" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S94" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T94" s="34">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="U94" s="34">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="V94" s="34">
+        <v>0.74882812499999984</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" s="35">
+        <v>46156</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="34">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="E95" s="34">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="F95" s="34">
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="G95" s="34">
+        <v>0.24513888888888885</v>
+      </c>
+      <c r="H95" s="34">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I95" s="34">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="J95" s="34">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="K95" s="34">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="L95" s="34">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="M95" s="34">
+        <v>0.54930555555555549</v>
+      </c>
+      <c r="N95" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O95" s="34">
+        <v>0.81111111111111089</v>
+      </c>
+      <c r="P95" s="34">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q95" s="34">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="R95" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S95" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T95" s="34">
+        <v>0.79236111111111096</v>
+      </c>
+      <c r="U95" s="34">
+        <v>0.8388888888888888</v>
+      </c>
+      <c r="V95" s="34">
+        <v>0.7515769675925924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="35">
+        <v>46163</v>
+      </c>
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96" s="34">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="E96" s="34">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="F96" s="34">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="G96" s="34">
+        <v>0.24201388888888889</v>
+      </c>
+      <c r="H96" s="34">
+        <v>0.35208333333333336</v>
+      </c>
+      <c r="I96" s="34">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="J96" s="34">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="K96" s="34">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="L96" s="34">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="M96" s="34">
+        <v>0.54930555555555549</v>
+      </c>
+      <c r="N96" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O96" s="34">
+        <v>0.8145833333333331</v>
+      </c>
+      <c r="P96" s="34">
+        <v>0.82847222222222217</v>
+      </c>
+      <c r="Q96" s="34">
+        <v>0.87222222222222212</v>
+      </c>
+      <c r="R96" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S96" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T96" s="34">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="U96" s="34">
+        <v>0.84236111111111112</v>
+      </c>
+      <c r="V96" s="34">
+        <v>0.75432581018518496</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="35">
+        <v>46165</v>
+      </c>
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="34">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="E97" s="34">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="F97" s="34">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="G97" s="34">
+        <v>0.24131944444444445</v>
+      </c>
+      <c r="H97" s="34">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="I97" s="34">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="J97" s="34">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="K97" s="34">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="L97" s="34">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="M97" s="34">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="N97" s="34">
+        <v>0.77083333333333326</v>
+      </c>
+      <c r="O97" s="34">
+        <v>0.81527777777777755</v>
+      </c>
+      <c r="P97" s="34">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="Q97" s="34">
+        <v>0.87361111111111101</v>
+      </c>
+      <c r="R97" s="34">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="S97" s="34">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="T97" s="34">
+        <v>0.79652777777777772</v>
+      </c>
+      <c r="U97" s="34">
+        <v>0.84375</v>
+      </c>
+      <c r="V97" s="34">
+        <v>0.75487557870370348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" s="35">
+        <v>46170</v>
+      </c>
+      <c r="B98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="34">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="E98" s="34">
+        <v>0.19374999999999998</v>
+      </c>
+      <c r="F98" s="34">
+        <v>0.23402777777777778</v>
+      </c>
+      <c r="G98" s="34">
+        <v>0.23993055555555556</v>
+      </c>
+      <c r="H98" s="34">
+        <v>0.35069444444444448</v>
+      </c>
+      <c r="I98" s="34">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="J98" s="34">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="K98" s="34">
+        <v>0.42847222222222225</v>
+      </c>
+      <c r="L98" s="34">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="M98" s="34">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="N98" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O98" s="34">
+        <v>0.81805555555555531</v>
+      </c>
+      <c r="P98" s="34">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="Q98" s="34">
+        <v>0.87638888888888877</v>
+      </c>
+      <c r="R98" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S98" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T98" s="34">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="U98" s="34">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="V98" s="34">
+        <v>0.75721932870370345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" s="35">
+        <v>46177</v>
+      </c>
+      <c r="B99" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" s="34">
+        <v>0.15625</v>
+      </c>
+      <c r="E99" s="34">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="F99" s="34">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="G99" s="34">
+        <v>0.23888888888888887</v>
+      </c>
+      <c r="H99" s="34">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I99" s="34">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="J99" s="34">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="K99" s="34">
+        <v>0.42847222222222225</v>
+      </c>
+      <c r="L99" s="34">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="M99" s="34">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="N99" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O99" s="34">
+        <v>0.82083333333333308</v>
+      </c>
+      <c r="P99" s="34">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="Q99" s="34">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="R99" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S99" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T99" s="34">
+        <v>0.80138888888888882</v>
+      </c>
+      <c r="U99" s="34">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="V99" s="34">
+        <v>0.75956307870370343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" s="35">
+        <v>46184</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D100" s="34">
+        <v>0.15486111111111112</v>
+      </c>
+      <c r="E100" s="34">
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="F100" s="34">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="G100" s="34">
+        <v>0.23819444444444443</v>
+      </c>
+      <c r="H100" s="34">
+        <v>0.34930555555555559</v>
+      </c>
+      <c r="I100" s="34">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="J100" s="34">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="K100" s="34">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="L100" s="34">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M100" s="34">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="N100" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O100" s="34">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="P100" s="34">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="Q100" s="34">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="R100" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S100" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T100" s="34">
+        <v>0.80347222222222214</v>
+      </c>
+      <c r="U100" s="34">
+        <v>0.85138888888888897</v>
+      </c>
+      <c r="V100" s="34">
+        <v>0.76135706018518512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" s="35">
+        <v>46191</v>
+      </c>
+      <c r="B101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="34">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="E101" s="34">
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="F101" s="34">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="G101" s="34">
+        <v>0.23888888888888887</v>
+      </c>
+      <c r="H101" s="34">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I101" s="34">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="J101" s="34">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="K101" s="34">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="L101" s="34">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="M101" s="34">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="N101" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O101" s="34">
+        <v>0.82499999999999973</v>
+      </c>
+      <c r="P101" s="34">
+        <v>0.8388888888888888</v>
+      </c>
+      <c r="Q101" s="34">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="R101" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S101" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T101" s="34">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="U101" s="34">
+        <v>0.85347222222222208</v>
+      </c>
+      <c r="V101" s="34">
+        <v>0.76322337962962938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" s="35">
+        <v>46198</v>
+      </c>
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="34">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="E102" s="34">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="F102" s="34">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="G102" s="34">
+        <v>0.23993055555555554</v>
+      </c>
+      <c r="H102" s="34">
+        <v>0.35069444444444448</v>
+      </c>
+      <c r="I102" s="34">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="J102" s="34">
+        <v>0.41041666666666671</v>
+      </c>
+      <c r="K102" s="34">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="L102" s="34">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="M102" s="34">
+        <v>0.55416666666666659</v>
+      </c>
+      <c r="N102" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O102" s="34">
+        <v>0.82569444444444418</v>
+      </c>
+      <c r="P102" s="34">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="Q102" s="34">
+        <v>0.88680555555555551</v>
+      </c>
+      <c r="R102" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S102" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T102" s="34">
+        <v>0.80624999999999991</v>
+      </c>
+      <c r="U102" s="34">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="V102" s="34">
+        <v>0.76399016203703674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" s="35">
+        <v>46205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="34">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="E103" s="34">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="F103" s="34">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="G103" s="34">
+        <v>0.24131944444444445</v>
+      </c>
+      <c r="H103" s="34">
+        <v>0.35208333333333336</v>
+      </c>
+      <c r="I103" s="34">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="J103" s="34">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="K103" s="34">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="L103" s="34">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="M103" s="34">
+        <v>0.55486111111111103</v>
+      </c>
+      <c r="N103" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O103" s="34">
+        <v>0.82569444444444418</v>
+      </c>
+      <c r="P103" s="34">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="Q103" s="34">
+        <v>0.88680555555555551</v>
+      </c>
+      <c r="R103" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S103" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T103" s="34">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="U103" s="34">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="V103" s="34">
+        <v>0.76413483796296278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" s="35">
+        <v>46212</v>
+      </c>
+      <c r="B104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="34">
+        <v>0.16041666666666665</v>
+      </c>
+      <c r="E104" s="34">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="F104" s="34">
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="G104" s="34">
+        <v>0.24374999999999997</v>
+      </c>
+      <c r="H104" s="34">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I104" s="34">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="J104" s="34">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="K104" s="34">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="L104" s="34">
+        <v>0.53125</v>
+      </c>
+      <c r="M104" s="34">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N104" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O104" s="34">
+        <v>0.82569444444444418</v>
+      </c>
+      <c r="P104" s="34">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="Q104" s="34">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="R104" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S104" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T104" s="34">
+        <v>0.80624999999999991</v>
+      </c>
+      <c r="U104" s="34">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="V104" s="34">
+        <v>0.76435185185185162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105" s="35">
+        <v>46219</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" s="34">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="E105" s="34">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="F105" s="34">
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="G105" s="34">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="H105" s="34">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="I105" s="34">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J105" s="34">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="K105" s="34">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="L105" s="34">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="M105" s="34">
+        <v>0.55624999999999991</v>
+      </c>
+      <c r="N105" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O105" s="34">
+        <v>0.82430555555555529</v>
+      </c>
+      <c r="P105" s="34">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="Q105" s="34">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="R105" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S105" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T105" s="34">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="U105" s="34">
+        <v>0.85138888888888897</v>
+      </c>
+      <c r="V105" s="34">
+        <v>0.76339699074074052</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" s="35">
+        <v>46226</v>
+      </c>
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="34">
+        <v>0.16874999999999998</v>
+      </c>
+      <c r="E106" s="34">
+        <v>0.20277777777777778</v>
+      </c>
+      <c r="F106" s="34">
+        <v>0.24236111111111108</v>
+      </c>
+      <c r="G106" s="34">
+        <v>0.24861111111111109</v>
+      </c>
+      <c r="H106" s="34">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="I106" s="34">
+        <v>0.38750000000000007</v>
+      </c>
+      <c r="J106" s="34">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="K106" s="34">
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="L106" s="34">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="M106" s="34">
+        <v>0.55624999999999991</v>
+      </c>
+      <c r="N106" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O106" s="34">
+        <v>0.82152777777777752</v>
+      </c>
+      <c r="P106" s="34">
+        <v>0.83611111111111103</v>
+      </c>
+      <c r="Q106" s="34">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="R106" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S106" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T106" s="34">
+        <v>0.80208333333333326</v>
+      </c>
+      <c r="U106" s="34">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="V106" s="34">
+        <v>0.76119791666666647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" s="35">
+        <v>46233</v>
+      </c>
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" s="34">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="E107" s="34">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F107" s="34">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="G107" s="34">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="H107" s="34">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="I107" s="34">
+        <v>0.38888888888888895</v>
+      </c>
+      <c r="J107" s="34">
+        <v>0.41736111111111118</v>
+      </c>
+      <c r="K107" s="34">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="L107" s="34">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="M107" s="34">
+        <v>0.55624999999999991</v>
+      </c>
+      <c r="N107" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O107" s="34">
+        <v>0.81874999999999976</v>
+      </c>
+      <c r="P107" s="34">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="Q107" s="34">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="R107" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S107" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T107" s="34">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="U107" s="34">
+        <v>0.84513888888888888</v>
+      </c>
+      <c r="V107" s="34">
+        <v>0.75907118055555534</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108" s="35">
+        <v>46240</v>
+      </c>
+      <c r="B108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="34">
+        <v>0.1784722222222222</v>
+      </c>
+      <c r="E108" s="34">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="F108" s="34">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="G108" s="34">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H108" s="34">
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="I108" s="34">
+        <v>0.39027777777777783</v>
+      </c>
+      <c r="J108" s="34">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="K108" s="34">
+        <v>0.4375</v>
+      </c>
+      <c r="L108" s="34">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="M108" s="34">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N108" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O108" s="34">
+        <v>0.8145833333333331</v>
+      </c>
+      <c r="P108" s="34">
+        <v>0.82847222222222217</v>
+      </c>
+      <c r="Q108" s="34">
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="R108" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S108" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T108" s="34">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="U108" s="34">
+        <v>0.84097222222222212</v>
+      </c>
+      <c r="V108" s="34">
+        <v>0.75562789351851833</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" s="35">
+        <v>46247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D109" s="34">
+        <v>0.18263888888888888</v>
+      </c>
+      <c r="E109" s="34">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="F109" s="34">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="G109" s="34">
+        <v>0.25868055555555552</v>
+      </c>
+      <c r="H109" s="34">
+        <v>0.36458333333333337</v>
+      </c>
+      <c r="I109" s="34">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="J109" s="34">
+        <v>0.42013888888888895</v>
+      </c>
+      <c r="K109" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L109" s="34">
+        <v>0.53125</v>
+      </c>
+      <c r="M109" s="34">
+        <v>0.55416666666666659</v>
+      </c>
+      <c r="N109" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O109" s="34">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="P109" s="34">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="Q109" s="34">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="R109" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S109" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T109" s="34">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="U109" s="34">
+        <v>0.83611111111111103</v>
+      </c>
+      <c r="V109" s="34">
+        <v>0.75225694444444446</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110" s="35">
+        <v>46254</v>
+      </c>
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" s="34">
+        <v>0.1875</v>
+      </c>
+      <c r="E110" s="34">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="F110" s="34">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="G110" s="34">
+        <v>0.26215277777777779</v>
+      </c>
+      <c r="H110" s="34">
+        <v>0.36597222222222225</v>
+      </c>
+      <c r="I110" s="34">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="J110" s="34">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="K110" s="34">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="L110" s="34">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="M110" s="34">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="N110" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O110" s="34">
+        <v>0.80555555555555536</v>
+      </c>
+      <c r="P110" s="34">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="Q110" s="34">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="R110" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S110" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T110" s="34">
+        <v>0.78541666666666665</v>
+      </c>
+      <c r="U110" s="34">
+        <v>0.83055555555555549</v>
+      </c>
+      <c r="V110" s="34">
+        <v>0.74819155092592571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" s="35">
+        <v>46261</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="34">
+        <v>0.19236111111111109</v>
+      </c>
+      <c r="E111" s="34">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="F111" s="34">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="G111" s="34">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="H111" s="34">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="I111" s="34">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="J111" s="34">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="K111" s="34">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="L111" s="34">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="M111" s="34">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="N111" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O111" s="34">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="P111" s="34">
+        <v>0.8125</v>
+      </c>
+      <c r="Q111" s="34">
+        <v>0.85208333333333341</v>
+      </c>
+      <c r="R111" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S111" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T111" s="34">
+        <v>0.77986111111111112</v>
+      </c>
+      <c r="U111" s="34">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="V111" s="34">
+        <v>0.74357638888888877</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112" s="35">
+        <v>46268</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D112" s="34">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="E112" s="34">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F112" s="34">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="G112" s="34">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="H112" s="34">
+        <v>0.36875000000000002</v>
+      </c>
+      <c r="I112" s="34">
+        <v>0.39444444444444449</v>
+      </c>
+      <c r="J112" s="34">
+        <v>0.42152777777777783</v>
+      </c>
+      <c r="K112" s="34">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="L112" s="34">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M112" s="34">
+        <v>0.54930555555555549</v>
+      </c>
+      <c r="N112" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O112" s="34">
+        <v>0.79374999999999984</v>
+      </c>
+      <c r="P112" s="34">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="Q112" s="34">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="R112" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S112" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T112" s="34">
+        <v>0.77361111111111103</v>
+      </c>
+      <c r="U112" s="34">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="V112" s="34">
+        <v>0.73826678240740728</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" s="35">
+        <v>46275</v>
+      </c>
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="34">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="E113" s="34">
+        <v>0.22847222222222222</v>
+      </c>
+      <c r="F113" s="34">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="G113" s="34">
+        <v>0.27187500000000003</v>
+      </c>
+      <c r="H113" s="34">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="I113" s="34">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="J113" s="34">
+        <v>0.42152777777777783</v>
+      </c>
+      <c r="K113" s="34">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="L113" s="34">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="M113" s="34">
+        <v>0.54791666666666661</v>
+      </c>
+      <c r="N113" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O113" s="34">
+        <v>0.78749999999999987</v>
+      </c>
+      <c r="P113" s="34">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="Q113" s="34">
+        <v>0.83819444444444458</v>
+      </c>
+      <c r="R113" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S113" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T113" s="34">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="U113" s="34">
+        <v>0.81249999999999989</v>
+      </c>
+      <c r="V113" s="34">
+        <v>0.7329571759259258</v>
       </c>
     </row>
   </sheetData>
